--- a/Data Collection/2026 DoA Capstone Azimith DoA Compare.xlsx
+++ b/Data Collection/2026 DoA Capstone Azimith DoA Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logbo\Downloads\doa26-a969435bf7a4a2d07083fb7c343afed8b9deebd5\doa26-a969435bf7a4a2d07083fb7c343afed8b9deebd5\Testing Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B6361-00C4-419A-A7E6-E6904D36AAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A04C08E-DB7D-43CB-B456-194435E8337E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20666" windowHeight="12266" xr2:uid="{17F3DD70-AA44-4092-A421-6DA96B94AEE4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="25">
   <si>
     <t>Trial #</t>
   </si>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,9 +282,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -623,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A23886-F8E4-437D-9EE1-0FBC4B549CBB}">
   <dimension ref="A1:N710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G215" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="J230" sqref="J230"/>
+    <sheetView tabSelected="1" topLeftCell="A290" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F312" sqref="F312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3176,7 +3173,7 @@
       <c r="F65" s="10">
         <v>15</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="8">
         <v>42</v>
       </c>
       <c r="H65" s="8">
@@ -3215,7 +3212,7 @@
       <c r="F66" s="10">
         <v>15</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="8">
         <v>42</v>
       </c>
       <c r="H66" s="8">
@@ -3254,7 +3251,7 @@
       <c r="F67" s="10">
         <v>15</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="8">
         <v>42</v>
       </c>
       <c r="H67" s="8">
@@ -3293,7 +3290,7 @@
       <c r="F68" s="10">
         <v>15</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G68" s="8">
         <v>42</v>
       </c>
       <c r="H68" s="8">
@@ -3332,7 +3329,7 @@
       <c r="F69" s="10">
         <v>5</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="8">
         <v>42</v>
       </c>
       <c r="H69" s="8">
@@ -3371,7 +3368,7 @@
       <c r="F70" s="10">
         <v>5</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="8">
         <v>42</v>
       </c>
       <c r="H70" s="8">
@@ -3413,7 +3410,7 @@
       <c r="F71" s="10">
         <v>5</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="8">
         <v>42</v>
       </c>
       <c r="H71" s="8">
@@ -3452,7 +3449,7 @@
       <c r="F72" s="10">
         <v>5</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G72" s="8">
         <v>42</v>
       </c>
       <c r="H72" s="8">
@@ -5801,7 +5798,7 @@
       <c r="F131" s="10">
         <v>-85</v>
       </c>
-      <c r="G131" s="17">
+      <c r="G131" s="8">
         <v>47</v>
       </c>
       <c r="H131" s="8">
@@ -5840,7 +5837,7 @@
       <c r="F132" s="10">
         <v>-85</v>
       </c>
-      <c r="G132" s="17">
+      <c r="G132" s="8">
         <v>0</v>
       </c>
       <c r="H132" s="8">
@@ -5879,7 +5876,7 @@
       <c r="F133" s="10">
         <v>0</v>
       </c>
-      <c r="G133" s="17">
+      <c r="G133" s="8">
         <v>0</v>
       </c>
       <c r="H133" s="8">
@@ -5918,7 +5915,7 @@
       <c r="F134" s="10">
         <v>0</v>
       </c>
-      <c r="G134" s="17">
+      <c r="G134" s="8">
         <v>0</v>
       </c>
       <c r="H134" s="8">
@@ -5957,7 +5954,7 @@
       <c r="F135" s="10">
         <v>0</v>
       </c>
-      <c r="G135" s="17">
+      <c r="G135" s="8">
         <v>0</v>
       </c>
       <c r="H135" s="8">
@@ -5996,7 +5993,7 @@
       <c r="F136" s="10">
         <v>0</v>
       </c>
-      <c r="G136" s="17">
+      <c r="G136" s="8">
         <v>0</v>
       </c>
       <c r="H136" s="8">
@@ -6035,7 +6032,7 @@
       <c r="F137" s="10">
         <v>0</v>
       </c>
-      <c r="G137" s="17">
+      <c r="G137" s="8">
         <v>0</v>
       </c>
       <c r="H137" s="8">
@@ -6074,7 +6071,7 @@
       <c r="F138" s="10">
         <v>0</v>
       </c>
-      <c r="G138" s="17">
+      <c r="G138" s="8">
         <v>0</v>
       </c>
       <c r="H138" s="8">
@@ -6113,7 +6110,7 @@
       <c r="F139" s="10">
         <v>0</v>
       </c>
-      <c r="G139" s="17">
+      <c r="G139" s="8">
         <v>0</v>
       </c>
       <c r="H139" s="8">
@@ -6152,7 +6149,7 @@
       <c r="F140" s="10">
         <v>0</v>
       </c>
-      <c r="G140" s="17">
+      <c r="G140" s="8">
         <v>0</v>
       </c>
       <c r="H140" s="8">
@@ -6191,7 +6188,7 @@
       <c r="F141" s="10">
         <v>0</v>
       </c>
-      <c r="G141" s="17">
+      <c r="G141" s="8">
         <v>0</v>
       </c>
       <c r="H141" s="8">
@@ -6230,7 +6227,7 @@
       <c r="F142" s="10">
         <v>0</v>
       </c>
-      <c r="G142" s="17">
+      <c r="G142" s="8">
         <v>-25</v>
       </c>
       <c r="H142" s="8">
@@ -6269,7 +6266,7 @@
       <c r="F143" s="10">
         <v>0</v>
       </c>
-      <c r="G143" s="17">
+      <c r="G143" s="8">
         <v>-25</v>
       </c>
       <c r="H143" s="8">
@@ -6308,7 +6305,7 @@
       <c r="F144" s="10">
         <v>0</v>
       </c>
-      <c r="G144" s="17">
+      <c r="G144" s="8">
         <v>-25</v>
       </c>
       <c r="H144" s="8">
@@ -6347,7 +6344,7 @@
       <c r="F145" s="10">
         <v>0</v>
       </c>
-      <c r="G145" s="17">
+      <c r="G145" s="8">
         <v>-25</v>
       </c>
       <c r="H145" s="8">
@@ -6386,7 +6383,7 @@
       <c r="F146" s="10">
         <v>0</v>
       </c>
-      <c r="G146" s="17">
+      <c r="G146" s="8">
         <v>-25</v>
       </c>
       <c r="H146" s="8">
@@ -6425,7 +6422,7 @@
       <c r="F147" s="10">
         <v>0</v>
       </c>
-      <c r="G147" s="17">
+      <c r="G147" s="8">
         <v>-25</v>
       </c>
       <c r="H147" s="8">
@@ -6464,7 +6461,7 @@
       <c r="F148" s="10">
         <v>0</v>
       </c>
-      <c r="G148" s="17">
+      <c r="G148" s="8">
         <v>-25</v>
       </c>
       <c r="H148" s="8">
@@ -6503,7 +6500,7 @@
       <c r="F149" s="10">
         <v>0</v>
       </c>
-      <c r="G149" s="17">
+      <c r="G149" s="8">
         <v>-25</v>
       </c>
       <c r="H149" s="8">
@@ -6542,7 +6539,7 @@
       <c r="F150" s="10">
         <v>0</v>
       </c>
-      <c r="G150" s="17">
+      <c r="G150" s="8">
         <v>-25</v>
       </c>
       <c r="H150" s="8">
@@ -6581,7 +6578,7 @@
       <c r="F151" s="10">
         <v>315</v>
       </c>
-      <c r="G151" s="17">
+      <c r="G151" s="8">
         <v>-25</v>
       </c>
       <c r="H151" s="8">
@@ -6620,7 +6617,7 @@
       <c r="F152" s="10">
         <v>315</v>
       </c>
-      <c r="G152" s="17">
+      <c r="G152" s="8">
         <v>-25</v>
       </c>
       <c r="H152" s="8">
@@ -6659,7 +6656,7 @@
       <c r="F153" s="10">
         <v>315</v>
       </c>
-      <c r="G153" s="17">
+      <c r="G153" s="8">
         <v>-25</v>
       </c>
       <c r="H153" s="8">
@@ -6698,7 +6695,7 @@
       <c r="F154" s="10">
         <v>315</v>
       </c>
-      <c r="G154" s="17">
+      <c r="G154" s="8">
         <v>-25</v>
       </c>
       <c r="H154" s="8">
@@ -6737,7 +6734,7 @@
       <c r="F155" s="10">
         <v>315</v>
       </c>
-      <c r="G155" s="17">
+      <c r="G155" s="8">
         <v>-25</v>
       </c>
       <c r="H155" s="8">
@@ -6776,7 +6773,7 @@
       <c r="F156" s="10">
         <v>315</v>
       </c>
-      <c r="G156" s="17">
+      <c r="G156" s="8">
         <v>-25</v>
       </c>
       <c r="H156" s="8">
@@ -6815,7 +6812,7 @@
       <c r="F157" s="10">
         <v>270</v>
       </c>
-      <c r="G157" s="17">
+      <c r="G157" s="8">
         <v>-25</v>
       </c>
       <c r="H157" s="8">
@@ -6854,7 +6851,7 @@
       <c r="F158" s="10">
         <v>270</v>
       </c>
-      <c r="G158" s="17">
+      <c r="G158" s="8">
         <v>-25</v>
       </c>
       <c r="H158" s="8">
@@ -6893,7 +6890,7 @@
       <c r="F159" s="10">
         <v>270</v>
       </c>
-      <c r="G159" s="17">
+      <c r="G159" s="8">
         <v>-25</v>
       </c>
       <c r="H159" s="8">
@@ -6932,7 +6929,7 @@
       <c r="F160" s="10">
         <v>270</v>
       </c>
-      <c r="G160" s="17">
+      <c r="G160" s="8">
         <v>-25</v>
       </c>
       <c r="H160" s="8">
@@ -6971,7 +6968,7 @@
       <c r="F161" s="10">
         <v>270</v>
       </c>
-      <c r="G161" s="17">
+      <c r="G161" s="8">
         <v>-25</v>
       </c>
       <c r="H161" s="8">
@@ -7010,7 +7007,7 @@
       <c r="F162" s="10">
         <v>270</v>
       </c>
-      <c r="G162" s="17">
+      <c r="G162" s="8">
         <v>-25</v>
       </c>
       <c r="H162" s="8">
@@ -7049,7 +7046,7 @@
       <c r="F163" s="10">
         <v>270</v>
       </c>
-      <c r="G163" s="17">
+      <c r="G163" s="8">
         <v>-25</v>
       </c>
       <c r="H163" s="8">
@@ -7088,7 +7085,7 @@
       <c r="F164" s="10">
         <v>270</v>
       </c>
-      <c r="G164" s="17">
+      <c r="G164" s="8">
         <v>-25</v>
       </c>
       <c r="H164" s="8">
@@ -7127,7 +7124,7 @@
       <c r="F165" s="10">
         <v>45</v>
       </c>
-      <c r="G165" s="17">
+      <c r="G165" s="8">
         <v>-25</v>
       </c>
       <c r="H165" s="8">
@@ -7166,7 +7163,7 @@
       <c r="F166" s="10">
         <v>45</v>
       </c>
-      <c r="G166" s="17">
+      <c r="G166" s="8">
         <v>-25</v>
       </c>
       <c r="H166" s="8">
@@ -7205,7 +7202,7 @@
       <c r="F167" s="10">
         <v>45</v>
       </c>
-      <c r="G167" s="17">
+      <c r="G167" s="8">
         <v>-25</v>
       </c>
       <c r="H167" s="8">
@@ -7244,7 +7241,7 @@
       <c r="F168" s="10">
         <v>45</v>
       </c>
-      <c r="G168" s="17">
+      <c r="G168" s="8">
         <v>-25</v>
       </c>
       <c r="H168" s="8">
@@ -7283,7 +7280,7 @@
       <c r="F169" s="10">
         <v>45</v>
       </c>
-      <c r="G169" s="17">
+      <c r="G169" s="8">
         <v>-25</v>
       </c>
       <c r="H169" s="8">
@@ -7322,7 +7319,7 @@
       <c r="F170" s="10">
         <v>45</v>
       </c>
-      <c r="G170" s="17">
+      <c r="G170" s="8">
         <v>-25</v>
       </c>
       <c r="H170" s="8">
@@ -7361,7 +7358,7 @@
       <c r="F171" s="10">
         <v>45</v>
       </c>
-      <c r="G171" s="17">
+      <c r="G171" s="8">
         <v>-25</v>
       </c>
       <c r="H171" s="8">
@@ -7400,7 +7397,7 @@
       <c r="F172" s="10">
         <v>45</v>
       </c>
-      <c r="G172" s="17">
+      <c r="G172" s="8">
         <v>-25</v>
       </c>
       <c r="H172" s="8">
@@ -7439,7 +7436,7 @@
       <c r="F173" s="10">
         <v>45</v>
       </c>
-      <c r="G173" s="17">
+      <c r="G173" s="8">
         <v>-25</v>
       </c>
       <c r="H173" s="8">
@@ -7478,7 +7475,7 @@
       <c r="F174" s="10">
         <v>45</v>
       </c>
-      <c r="G174" s="17">
+      <c r="G174" s="8">
         <v>-25</v>
       </c>
       <c r="H174" s="8">
@@ -9542,13 +9539,19 @@
         <v>8</v>
       </c>
       <c r="F230" s="10">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="G230" s="8">
         <v>15</v>
       </c>
       <c r="H230" s="8">
         <v>2</v>
+      </c>
+      <c r="J230" s="10">
+        <v>305.2</v>
+      </c>
+      <c r="K230" s="1">
+        <v>1.31</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.5">
@@ -9568,13 +9571,19 @@
         <v>8</v>
       </c>
       <c r="F231" s="10">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="G231" s="8">
         <v>15</v>
       </c>
       <c r="H231" s="8">
         <v>2</v>
+      </c>
+      <c r="J231" s="10">
+        <v>186.64</v>
+      </c>
+      <c r="K231" s="1">
+        <v>12.82</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.5">
@@ -9594,7 +9603,7 @@
         <v>8</v>
       </c>
       <c r="F232" s="10">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="G232" s="8">
         <v>15</v>
@@ -9602,356 +9611,2658 @@
       <c r="H232" s="8">
         <v>2</v>
       </c>
+      <c r="J232" s="10">
+        <v>192.75</v>
+      </c>
+      <c r="K232" s="1">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F233" s="10"/>
-      <c r="G233" s="8"/>
+      <c r="A233" s="6">
+        <v>222</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233" s="10">
+        <v>298</v>
+      </c>
+      <c r="G233" s="8">
+        <v>15</v>
+      </c>
+      <c r="H233" s="8">
+        <v>2</v>
+      </c>
+      <c r="J233" s="10">
+        <v>199.51</v>
+      </c>
+      <c r="K233" s="1">
+        <v>53.21</v>
+      </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F234" s="10"/>
-      <c r="G234" s="8"/>
+      <c r="A234" s="6">
+        <v>223</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234" s="10">
+        <v>298</v>
+      </c>
+      <c r="G234" s="8">
+        <v>15</v>
+      </c>
+      <c r="H234" s="8">
+        <v>2</v>
+      </c>
+      <c r="J234" s="10">
+        <v>143.04</v>
+      </c>
+      <c r="K234" s="1">
+        <v>17.55</v>
+      </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F235" s="10"/>
-      <c r="G235" s="8"/>
+      <c r="A235" s="6">
+        <v>224</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" s="10">
+        <v>298</v>
+      </c>
+      <c r="G235" s="8">
+        <v>15</v>
+      </c>
+      <c r="H235" s="8">
+        <v>2</v>
+      </c>
+      <c r="J235" s="10">
+        <v>194.23</v>
+      </c>
+      <c r="K235" s="1">
+        <v>45.73</v>
+      </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F236" s="10"/>
-      <c r="G236" s="8"/>
+      <c r="A236" s="6">
+        <v>225</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" s="10">
+        <v>298</v>
+      </c>
+      <c r="G236" s="8">
+        <v>15</v>
+      </c>
+      <c r="H236" s="8">
+        <v>2</v>
+      </c>
+      <c r="J236" s="10">
+        <v>181.87</v>
+      </c>
+      <c r="K236" s="1">
+        <v>21.18</v>
+      </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F237" s="10"/>
-      <c r="G237" s="8"/>
+      <c r="A237" s="6">
+        <v>226</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" s="10">
+        <v>238</v>
+      </c>
+      <c r="G237" s="8">
+        <v>25</v>
+      </c>
+      <c r="H237" s="8">
+        <v>2</v>
+      </c>
+      <c r="J237" s="10">
+        <v>242.54</v>
+      </c>
+      <c r="K237" s="1">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F238" s="10"/>
-      <c r="G238" s="8"/>
+      <c r="A238" s="6">
+        <v>227</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238" s="10">
+        <v>238</v>
+      </c>
+      <c r="G238" s="8">
+        <v>25</v>
+      </c>
+      <c r="H238" s="8">
+        <v>2</v>
+      </c>
+      <c r="J238" s="10">
+        <v>243.63</v>
+      </c>
+      <c r="K238" s="1">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F239" s="10"/>
-      <c r="G239" s="8"/>
+      <c r="A239" s="6">
+        <v>228</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239" s="10">
+        <v>238</v>
+      </c>
+      <c r="G239" s="8">
+        <v>25</v>
+      </c>
+      <c r="H239" s="8">
+        <v>2</v>
+      </c>
+      <c r="J239" s="10">
+        <v>246.64</v>
+      </c>
+      <c r="K239" s="1">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F240" s="10"/>
-      <c r="G240" s="8"/>
-    </row>
-    <row r="241" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F241" s="10"/>
-      <c r="G241" s="8"/>
-    </row>
-    <row r="242" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F242" s="10"/>
-      <c r="G242" s="8"/>
-    </row>
-    <row r="243" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F243" s="10"/>
-      <c r="G243" s="8"/>
-    </row>
-    <row r="244" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F244" s="10"/>
-      <c r="G244" s="8"/>
-    </row>
-    <row r="245" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F245" s="10"/>
-      <c r="G245" s="8"/>
-    </row>
-    <row r="246" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F246" s="10"/>
-      <c r="G246" s="8"/>
-    </row>
-    <row r="247" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F247" s="10"/>
-      <c r="G247" s="8"/>
-    </row>
-    <row r="248" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F248" s="10"/>
-      <c r="G248" s="8"/>
-    </row>
-    <row r="249" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F249" s="10"/>
-      <c r="G249" s="8"/>
-    </row>
-    <row r="250" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F250" s="10"/>
-      <c r="G250" s="8"/>
-    </row>
-    <row r="251" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F251" s="10"/>
-      <c r="G251" s="8"/>
-    </row>
-    <row r="252" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F252" s="10"/>
-      <c r="G252" s="8"/>
-    </row>
-    <row r="253" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F253" s="10"/>
-      <c r="G253" s="8"/>
-    </row>
-    <row r="254" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F254" s="10"/>
-      <c r="G254" s="8"/>
-    </row>
-    <row r="255" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F255" s="10"/>
-      <c r="G255" s="8"/>
-    </row>
-    <row r="256" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F256" s="10"/>
-      <c r="G256" s="8"/>
-    </row>
-    <row r="257" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F257" s="10"/>
-      <c r="G257" s="8"/>
-    </row>
-    <row r="258" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F258" s="10"/>
-      <c r="G258" s="8"/>
-    </row>
-    <row r="259" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F259" s="10"/>
-      <c r="G259" s="8"/>
-    </row>
-    <row r="260" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F260" s="10"/>
-      <c r="G260" s="8"/>
-    </row>
-    <row r="261" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F261" s="10"/>
-      <c r="G261" s="8"/>
-    </row>
-    <row r="262" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F262" s="10"/>
-      <c r="G262" s="8"/>
-    </row>
-    <row r="263" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F263" s="10"/>
-      <c r="G263" s="8"/>
-    </row>
-    <row r="264" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F264" s="10"/>
-      <c r="G264" s="8"/>
-    </row>
-    <row r="265" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F265" s="10"/>
-      <c r="G265" s="8"/>
-    </row>
-    <row r="266" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F266" s="10"/>
-      <c r="G266" s="8"/>
-    </row>
-    <row r="267" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F267" s="10"/>
-      <c r="G267" s="8"/>
-    </row>
-    <row r="268" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F268" s="10"/>
-      <c r="G268" s="8"/>
-    </row>
-    <row r="269" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F269" s="10"/>
-      <c r="G269" s="8"/>
-    </row>
-    <row r="270" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F270" s="10"/>
-      <c r="G270" s="8"/>
-    </row>
-    <row r="271" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F271" s="10"/>
-      <c r="G271" s="8"/>
-    </row>
-    <row r="272" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F272" s="10"/>
-      <c r="G272" s="8"/>
-    </row>
-    <row r="273" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F273" s="10"/>
-      <c r="G273" s="8"/>
-    </row>
-    <row r="274" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F274" s="10"/>
-      <c r="G274" s="8"/>
-    </row>
-    <row r="275" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F275" s="10"/>
-      <c r="G275" s="8"/>
-    </row>
-    <row r="276" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F276" s="10"/>
-      <c r="G276" s="8"/>
-    </row>
-    <row r="277" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F277" s="10"/>
-      <c r="G277" s="8"/>
-    </row>
-    <row r="278" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F278" s="10"/>
-      <c r="G278" s="8"/>
-    </row>
-    <row r="279" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F279" s="10"/>
-      <c r="G279" s="8"/>
-    </row>
-    <row r="280" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F280" s="10"/>
-      <c r="G280" s="8"/>
-    </row>
-    <row r="281" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F281" s="10"/>
-      <c r="G281" s="8"/>
-    </row>
-    <row r="282" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F282" s="10"/>
-      <c r="G282" s="8"/>
-    </row>
-    <row r="283" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F283" s="10"/>
-      <c r="G283" s="8"/>
-    </row>
-    <row r="284" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F284" s="10"/>
-      <c r="G284" s="8"/>
-    </row>
-    <row r="285" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F285" s="10"/>
-      <c r="G285" s="8"/>
-    </row>
-    <row r="286" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F286" s="10"/>
-      <c r="G286" s="8"/>
-    </row>
-    <row r="287" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F287" s="10"/>
-      <c r="G287" s="8"/>
-    </row>
-    <row r="288" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F288" s="10"/>
-      <c r="G288" s="8"/>
-    </row>
-    <row r="289" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F289" s="10"/>
-      <c r="G289" s="8"/>
-    </row>
-    <row r="290" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F290" s="10"/>
-      <c r="G290" s="8"/>
-    </row>
-    <row r="291" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F291" s="10"/>
-      <c r="G291" s="8"/>
-    </row>
-    <row r="292" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F292" s="10"/>
-      <c r="G292" s="8"/>
-    </row>
-    <row r="293" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F293" s="10"/>
-      <c r="G293" s="8"/>
-    </row>
-    <row r="294" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F294" s="10"/>
-      <c r="G294" s="8"/>
-    </row>
-    <row r="295" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F295" s="10"/>
-      <c r="G295" s="8"/>
-    </row>
-    <row r="296" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F296" s="10"/>
-      <c r="G296" s="8"/>
-    </row>
-    <row r="297" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F297" s="10"/>
-      <c r="G297" s="8"/>
-    </row>
-    <row r="298" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F298" s="10"/>
-      <c r="G298" s="8"/>
-    </row>
-    <row r="299" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F299" s="10"/>
-      <c r="G299" s="8"/>
-    </row>
-    <row r="300" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F300" s="10"/>
-      <c r="G300" s="8"/>
-    </row>
-    <row r="301" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F301" s="10"/>
-      <c r="G301" s="8"/>
-    </row>
-    <row r="302" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F302" s="10"/>
-      <c r="G302" s="8"/>
-    </row>
-    <row r="303" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F303" s="10"/>
-      <c r="G303" s="8"/>
-    </row>
-    <row r="304" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F304" s="10"/>
-      <c r="G304" s="8"/>
-    </row>
-    <row r="305" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F305" s="10"/>
-      <c r="G305" s="8"/>
-    </row>
-    <row r="306" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F306" s="10"/>
-      <c r="G306" s="8"/>
-    </row>
-    <row r="307" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F307" s="10"/>
-      <c r="G307" s="8"/>
-    </row>
-    <row r="308" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F308" s="10"/>
-      <c r="G308" s="8"/>
-    </row>
-    <row r="309" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F309" s="10"/>
-      <c r="G309" s="8"/>
-    </row>
-    <row r="310" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F310" s="10"/>
-      <c r="G310" s="8"/>
-    </row>
-    <row r="311" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F311" s="10"/>
-      <c r="G311" s="8"/>
-    </row>
-    <row r="312" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F312" s="10"/>
-      <c r="G312" s="8"/>
-    </row>
-    <row r="313" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F313" s="10"/>
-      <c r="G313" s="8"/>
-    </row>
-    <row r="314" spans="6:7" x14ac:dyDescent="0.5">
-      <c r="F314" s="10"/>
-      <c r="G314" s="8"/>
-    </row>
-    <row r="315" spans="6:7" x14ac:dyDescent="0.5">
+      <c r="A240" s="6">
+        <v>229</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" s="10">
+        <v>238</v>
+      </c>
+      <c r="G240" s="8">
+        <v>25</v>
+      </c>
+      <c r="H240" s="8">
+        <v>2</v>
+      </c>
+      <c r="J240" s="10">
+        <v>244.94</v>
+      </c>
+      <c r="K240" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A241" s="6">
+        <v>230</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241" s="10">
+        <v>238</v>
+      </c>
+      <c r="G241" s="8">
+        <v>25</v>
+      </c>
+      <c r="H241" s="8">
+        <v>2</v>
+      </c>
+      <c r="J241" s="10">
+        <v>245.37</v>
+      </c>
+      <c r="K241" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A242" s="6">
+        <v>231</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242" s="10">
+        <v>238</v>
+      </c>
+      <c r="G242" s="8">
+        <v>25</v>
+      </c>
+      <c r="H242" s="8">
+        <v>2</v>
+      </c>
+      <c r="J242" s="10">
+        <v>245.39</v>
+      </c>
+      <c r="K242" s="1">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A243" s="6">
+        <v>232</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243" s="10">
+        <v>238</v>
+      </c>
+      <c r="G243" s="8">
+        <v>25</v>
+      </c>
+      <c r="H243" s="8">
+        <v>2</v>
+      </c>
+      <c r="J243" s="10">
+        <v>244.88</v>
+      </c>
+      <c r="K243" s="1">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A244" s="6">
+        <v>233</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244" s="10">
+        <v>0</v>
+      </c>
+      <c r="G244" s="8">
+        <v>25</v>
+      </c>
+      <c r="H244" s="8">
+        <v>4</v>
+      </c>
+      <c r="J244" s="10">
+        <v>180.25</v>
+      </c>
+      <c r="K244" s="1">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A245" s="6">
+        <v>234</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245" s="10">
+        <v>0</v>
+      </c>
+      <c r="G245" s="8">
+        <v>25</v>
+      </c>
+      <c r="H245" s="8">
+        <v>4</v>
+      </c>
+      <c r="J245" s="10">
+        <v>189.44</v>
+      </c>
+      <c r="K245" s="1">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A246" s="6">
+        <v>235</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246" s="10">
+        <v>0</v>
+      </c>
+      <c r="G246" s="8">
+        <v>25</v>
+      </c>
+      <c r="H246" s="8">
+        <v>4</v>
+      </c>
+      <c r="J246" s="10">
+        <v>190.3</v>
+      </c>
+      <c r="K246" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A247" s="6">
+        <v>236</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247" s="10">
+        <v>0</v>
+      </c>
+      <c r="G247" s="8">
+        <v>25</v>
+      </c>
+      <c r="H247" s="8">
+        <v>4</v>
+      </c>
+      <c r="J247" s="10">
+        <v>186.31</v>
+      </c>
+      <c r="K247" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A248" s="6">
+        <v>237</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" s="10">
+        <v>0</v>
+      </c>
+      <c r="G248" s="8">
+        <v>25</v>
+      </c>
+      <c r="H248" s="8">
+        <v>4</v>
+      </c>
+      <c r="J248" s="10">
+        <v>187.41</v>
+      </c>
+      <c r="K248" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A249" s="6">
+        <v>238</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F249" s="10">
+        <v>30</v>
+      </c>
+      <c r="G249" s="8">
+        <v>25</v>
+      </c>
+      <c r="H249" s="8">
+        <v>4</v>
+      </c>
+      <c r="J249" s="10">
+        <v>50.48</v>
+      </c>
+      <c r="K249" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A250" s="6">
+        <v>239</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250" s="10">
+        <v>30</v>
+      </c>
+      <c r="G250" s="8">
+        <v>25</v>
+      </c>
+      <c r="H250" s="8">
+        <v>4</v>
+      </c>
+      <c r="J250" s="10">
+        <v>49.11</v>
+      </c>
+      <c r="K250" s="1">
+        <v>17.14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A251" s="6">
+        <v>240</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" s="10">
+        <v>30</v>
+      </c>
+      <c r="G251" s="8">
+        <v>25</v>
+      </c>
+      <c r="H251" s="8">
+        <v>4</v>
+      </c>
+      <c r="J251" s="10">
+        <v>51.1</v>
+      </c>
+      <c r="K251" s="1">
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A252" s="6">
+        <v>241</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" s="10">
+        <v>30</v>
+      </c>
+      <c r="G252" s="8">
+        <v>25</v>
+      </c>
+      <c r="H252" s="8">
+        <v>4</v>
+      </c>
+      <c r="J252" s="10">
+        <v>59.82</v>
+      </c>
+      <c r="K252" s="1">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A253" s="6">
+        <v>242</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253" s="10">
+        <v>30</v>
+      </c>
+      <c r="G253" s="8">
+        <v>25</v>
+      </c>
+      <c r="H253" s="8">
+        <v>4</v>
+      </c>
+      <c r="J253" s="10">
+        <v>21.2</v>
+      </c>
+      <c r="K253" s="1">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A254" s="6">
+        <v>243</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" s="10">
+        <v>70</v>
+      </c>
+      <c r="G254" s="8">
+        <v>25</v>
+      </c>
+      <c r="H254" s="8">
+        <v>3</v>
+      </c>
+      <c r="J254" s="10">
+        <v>69.94</v>
+      </c>
+      <c r="K254" s="1">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A255" s="6">
+        <v>244</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255" s="10">
+        <v>0</v>
+      </c>
+      <c r="G255" s="8">
+        <v>25</v>
+      </c>
+      <c r="H255" s="8">
+        <v>2</v>
+      </c>
+      <c r="J255" s="10">
+        <v>38.08</v>
+      </c>
+      <c r="K255" s="1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A256" s="6">
+        <v>245</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256" s="10">
+        <v>0</v>
+      </c>
+      <c r="G256" s="8">
+        <v>25</v>
+      </c>
+      <c r="H256" s="8">
+        <v>2</v>
+      </c>
+      <c r="J256" s="10">
+        <v>40.64</v>
+      </c>
+      <c r="K256" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A257" s="6">
+        <v>246</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257" s="10">
+        <v>0</v>
+      </c>
+      <c r="G257" s="8">
+        <v>25</v>
+      </c>
+      <c r="H257" s="8">
+        <v>2</v>
+      </c>
+      <c r="J257" s="10">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K257" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A258" s="6">
+        <v>247</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258" s="10">
+        <v>0</v>
+      </c>
+      <c r="G258" s="8">
+        <v>25</v>
+      </c>
+      <c r="H258" s="8">
+        <v>2</v>
+      </c>
+      <c r="J258" s="10">
+        <v>40.97</v>
+      </c>
+      <c r="K258" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A259" s="6">
+        <v>248</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259" s="10">
+        <v>0</v>
+      </c>
+      <c r="G259" s="8">
+        <v>25</v>
+      </c>
+      <c r="H259" s="8">
+        <v>2</v>
+      </c>
+      <c r="J259" s="10">
+        <v>39.28</v>
+      </c>
+      <c r="K259" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A260" s="6">
+        <v>249</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260" s="10">
+        <v>30</v>
+      </c>
+      <c r="G260" s="8">
+        <v>25</v>
+      </c>
+      <c r="H260" s="8">
+        <v>2</v>
+      </c>
+      <c r="J260" s="10">
+        <v>-8</v>
+      </c>
+      <c r="K260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A261" s="6">
+        <v>250</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" s="10">
+        <v>30</v>
+      </c>
+      <c r="G261" s="8">
+        <v>25</v>
+      </c>
+      <c r="H261" s="8">
+        <v>2</v>
+      </c>
+      <c r="J261" s="10">
+        <v>-8.98</v>
+      </c>
+      <c r="K261" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A262" s="6">
+        <v>251</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262" s="10">
+        <v>30</v>
+      </c>
+      <c r="G262" s="8">
+        <v>25</v>
+      </c>
+      <c r="H262" s="8">
+        <v>2</v>
+      </c>
+      <c r="J262" s="10">
+        <v>-8.8699999999999992</v>
+      </c>
+      <c r="K262" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A263" s="6">
+        <v>252</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263" s="10">
+        <v>30</v>
+      </c>
+      <c r="G263" s="8">
+        <v>25</v>
+      </c>
+      <c r="H263" s="8">
+        <v>2</v>
+      </c>
+      <c r="J263" s="10">
+        <v>-8.02</v>
+      </c>
+      <c r="K263" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A264" s="6">
+        <v>253</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264" s="10">
+        <v>30</v>
+      </c>
+      <c r="G264" s="8">
+        <v>25</v>
+      </c>
+      <c r="H264" s="8">
+        <v>2</v>
+      </c>
+      <c r="J264" s="10">
+        <v>-8.66</v>
+      </c>
+      <c r="K264" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A265" s="6">
+        <v>254</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265" s="10">
+        <v>60</v>
+      </c>
+      <c r="G265" s="8">
+        <v>25</v>
+      </c>
+      <c r="H265" s="8">
+        <v>2</v>
+      </c>
+      <c r="J265" s="10">
+        <v>-38.770000000000003</v>
+      </c>
+      <c r="K265" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A266" s="6">
+        <v>255</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F266" s="10">
+        <v>60</v>
+      </c>
+      <c r="G266" s="8">
+        <v>25</v>
+      </c>
+      <c r="H266" s="8">
+        <v>2</v>
+      </c>
+      <c r="J266" s="10">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="K266" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A267" s="6">
+        <v>256</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267" s="10">
+        <v>60</v>
+      </c>
+      <c r="G267" s="8">
+        <v>25</v>
+      </c>
+      <c r="H267" s="8">
+        <v>2</v>
+      </c>
+      <c r="J267" s="10">
+        <v>-38.950000000000003</v>
+      </c>
+      <c r="K267" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A268" s="6">
+        <v>257</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F268" s="10">
+        <v>60</v>
+      </c>
+      <c r="G268" s="8">
+        <v>25</v>
+      </c>
+      <c r="H268" s="8">
+        <v>2</v>
+      </c>
+      <c r="J268" s="10">
+        <v>-39.86</v>
+      </c>
+      <c r="K268" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A269" s="6">
+        <v>258</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F269" s="10">
+        <v>60</v>
+      </c>
+      <c r="G269" s="8">
+        <v>25</v>
+      </c>
+      <c r="H269" s="8">
+        <v>2</v>
+      </c>
+      <c r="J269" s="10">
+        <v>-38.31</v>
+      </c>
+      <c r="K269" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A270" s="6">
+        <v>259</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F270" s="10">
+        <v>90</v>
+      </c>
+      <c r="G270" s="8">
+        <v>25</v>
+      </c>
+      <c r="H270" s="8">
+        <v>2</v>
+      </c>
+      <c r="J270" s="10">
+        <v>-39.83</v>
+      </c>
+      <c r="K270" s="1">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A271" s="6">
+        <v>260</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271" s="10">
+        <v>90</v>
+      </c>
+      <c r="G271" s="8">
+        <v>25</v>
+      </c>
+      <c r="H271" s="8">
+        <v>2</v>
+      </c>
+      <c r="J271" s="10">
+        <v>46.73</v>
+      </c>
+      <c r="K271" s="1">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A272" s="6">
+        <v>261</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272" s="10">
+        <v>90</v>
+      </c>
+      <c r="G272" s="8">
+        <v>25</v>
+      </c>
+      <c r="H272" s="8">
+        <v>2</v>
+      </c>
+      <c r="J272" s="10">
+        <v>39.78</v>
+      </c>
+      <c r="K272" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A273" s="6">
+        <v>262</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273" s="10">
+        <v>90</v>
+      </c>
+      <c r="G273" s="8">
+        <v>25</v>
+      </c>
+      <c r="H273" s="8">
+        <v>2</v>
+      </c>
+      <c r="J273" s="10">
+        <v>39.07</v>
+      </c>
+      <c r="K273" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A274" s="6">
+        <v>263</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F274" s="10">
+        <v>90</v>
+      </c>
+      <c r="G274" s="8">
+        <v>25</v>
+      </c>
+      <c r="H274" s="8">
+        <v>2</v>
+      </c>
+      <c r="J274" s="10">
+        <v>37.42</v>
+      </c>
+      <c r="K274" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A275" s="6">
+        <v>264</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275" s="10">
+        <v>-30</v>
+      </c>
+      <c r="G275" s="8">
+        <v>25</v>
+      </c>
+      <c r="H275" s="8">
+        <v>2</v>
+      </c>
+      <c r="J275" s="10">
+        <v>49.95</v>
+      </c>
+      <c r="K275" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A276" s="6">
+        <v>265</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276" s="10">
+        <v>90</v>
+      </c>
+      <c r="G276" s="8">
+        <v>25</v>
+      </c>
+      <c r="H276" s="8">
+        <v>2</v>
+      </c>
+      <c r="J276" s="10">
+        <v>28.22</v>
+      </c>
+      <c r="K276" s="1">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A277" s="6">
+        <v>266</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F277" s="10">
+        <v>90</v>
+      </c>
+      <c r="G277" s="8">
+        <v>25</v>
+      </c>
+      <c r="H277" s="8">
+        <v>2</v>
+      </c>
+      <c r="J277" s="10">
+        <v>29.48</v>
+      </c>
+      <c r="K277" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A278" s="6">
+        <v>267</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278" s="10">
+        <v>90</v>
+      </c>
+      <c r="G278" s="8">
+        <v>25</v>
+      </c>
+      <c r="H278" s="8">
+        <v>2</v>
+      </c>
+      <c r="J278" s="10">
+        <v>31.52</v>
+      </c>
+      <c r="K278" s="1">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A279" s="6">
+        <v>268</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F279" s="10">
+        <v>90</v>
+      </c>
+      <c r="G279" s="8">
+        <v>25</v>
+      </c>
+      <c r="H279" s="8">
+        <v>2</v>
+      </c>
+      <c r="J279" s="10">
+        <v>29.61</v>
+      </c>
+      <c r="K279" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A280" s="6">
+        <v>269</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280" s="10">
+        <v>90</v>
+      </c>
+      <c r="G280" s="8">
+        <v>25</v>
+      </c>
+      <c r="H280" s="8">
+        <v>2</v>
+      </c>
+      <c r="J280" s="10">
+        <v>28.58</v>
+      </c>
+      <c r="K280" s="1">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A281" s="6">
+        <v>270</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281" s="10">
+        <v>60</v>
+      </c>
+      <c r="G281" s="8">
+        <v>25</v>
+      </c>
+      <c r="H281" s="8">
+        <v>2</v>
+      </c>
+      <c r="J281" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="K281" s="1">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A282" s="6">
+        <v>271</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F282" s="10">
+        <v>60</v>
+      </c>
+      <c r="G282" s="8">
+        <v>25</v>
+      </c>
+      <c r="H282" s="8">
+        <v>2</v>
+      </c>
+      <c r="J282" s="10">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="K282" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A283" s="6">
+        <v>272</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F283" s="10">
+        <v>60</v>
+      </c>
+      <c r="G283" s="8">
+        <v>25</v>
+      </c>
+      <c r="H283" s="8">
+        <v>2</v>
+      </c>
+      <c r="J283" s="10">
+        <v>15.74</v>
+      </c>
+      <c r="K283" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A284" s="6">
+        <v>273</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F284" s="10">
+        <v>60</v>
+      </c>
+      <c r="G284" s="8">
+        <v>25</v>
+      </c>
+      <c r="H284" s="8">
+        <v>2</v>
+      </c>
+      <c r="J284" s="10">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="K284" s="1">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A285" s="6">
+        <v>274</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F285" s="10">
+        <v>60</v>
+      </c>
+      <c r="G285" s="8">
+        <v>25</v>
+      </c>
+      <c r="H285" s="8">
+        <v>2</v>
+      </c>
+      <c r="J285" s="10">
+        <v>16.72</v>
+      </c>
+      <c r="K285" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A286" s="6">
+        <v>275</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F286" s="10">
+        <v>38</v>
+      </c>
+      <c r="G286" s="8">
+        <v>25</v>
+      </c>
+      <c r="H286" s="8">
+        <v>2</v>
+      </c>
+      <c r="J286" s="10">
+        <v>50.22</v>
+      </c>
+      <c r="K286" s="1">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A287" s="6">
+        <v>276</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F287" s="10">
+        <v>38</v>
+      </c>
+      <c r="G287" s="8">
+        <v>25</v>
+      </c>
+      <c r="H287" s="8">
+        <v>2</v>
+      </c>
+      <c r="J287" s="10">
+        <v>49.88</v>
+      </c>
+      <c r="K287" s="1">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A288" s="6">
+        <v>277</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F288" s="10">
+        <v>38</v>
+      </c>
+      <c r="G288" s="8">
+        <v>25</v>
+      </c>
+      <c r="H288" s="8">
+        <v>2</v>
+      </c>
+      <c r="J288" s="10">
+        <v>46.69</v>
+      </c>
+      <c r="K288" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A289" s="6">
+        <v>278</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F289" s="10">
+        <v>38</v>
+      </c>
+      <c r="G289" s="8">
+        <v>25</v>
+      </c>
+      <c r="H289" s="8">
+        <v>2</v>
+      </c>
+      <c r="J289" s="10">
+        <v>47.95</v>
+      </c>
+      <c r="K289" s="1">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A290" s="6">
+        <v>279</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F290" s="10">
+        <v>38</v>
+      </c>
+      <c r="G290" s="8">
+        <v>25</v>
+      </c>
+      <c r="H290" s="8">
+        <v>2</v>
+      </c>
+      <c r="J290" s="10">
+        <v>44.47</v>
+      </c>
+      <c r="K290" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A291" s="6">
+        <v>280</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291" s="10">
+        <v>13</v>
+      </c>
+      <c r="G291" s="8">
+        <v>25</v>
+      </c>
+      <c r="H291" s="8">
+        <v>2</v>
+      </c>
+      <c r="J291" s="10">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="K291" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A292" s="6">
+        <v>281</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292" s="10">
+        <v>13</v>
+      </c>
+      <c r="G292" s="8">
+        <v>25</v>
+      </c>
+      <c r="H292" s="8">
+        <v>2</v>
+      </c>
+      <c r="J292" s="10">
+        <v>42.01</v>
+      </c>
+      <c r="K292" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A293" s="6">
+        <v>282</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F293" s="10">
+        <v>0</v>
+      </c>
+      <c r="G293" s="8">
+        <v>25</v>
+      </c>
+      <c r="H293" s="8">
+        <v>2</v>
+      </c>
+      <c r="J293" s="10">
+        <v>-6.13</v>
+      </c>
+      <c r="K293" s="1">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A294" s="6">
+        <v>283</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F294" s="10">
+        <v>0</v>
+      </c>
+      <c r="G294" s="8">
+        <v>25</v>
+      </c>
+      <c r="H294" s="8">
+        <v>2</v>
+      </c>
+      <c r="J294" s="10">
+        <v>-8.6</v>
+      </c>
+      <c r="K294" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A295" s="6">
+        <v>284</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F295" s="10">
+        <v>0</v>
+      </c>
+      <c r="G295" s="8">
+        <v>25</v>
+      </c>
+      <c r="H295" s="8">
+        <v>2</v>
+      </c>
+      <c r="J295" s="10">
+        <v>-7.25</v>
+      </c>
+      <c r="K295" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A296" s="6">
+        <v>285</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F296" s="10">
+        <v>0</v>
+      </c>
+      <c r="G296" s="8">
+        <v>25</v>
+      </c>
+      <c r="H296" s="8">
+        <v>2</v>
+      </c>
+      <c r="J296" s="10">
+        <v>-4.45</v>
+      </c>
+      <c r="K296" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A297" s="6">
+        <v>286</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F297" s="10">
+        <v>0</v>
+      </c>
+      <c r="G297" s="8">
+        <v>25</v>
+      </c>
+      <c r="H297" s="8">
+        <v>2</v>
+      </c>
+      <c r="J297" s="10">
+        <v>-3.71</v>
+      </c>
+      <c r="K297" s="1">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A298" s="6">
+        <v>287</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F298" s="10">
+        <v>0</v>
+      </c>
+      <c r="G298" s="8">
+        <v>15</v>
+      </c>
+      <c r="H298" s="8">
+        <v>2</v>
+      </c>
+      <c r="J298" s="10">
+        <v>-32.549999999999997</v>
+      </c>
+      <c r="K298" s="1">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A299" s="6">
+        <v>288</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F299" s="10">
+        <v>0</v>
+      </c>
+      <c r="G299" s="8">
+        <v>15</v>
+      </c>
+      <c r="H299" s="8">
+        <v>2</v>
+      </c>
+      <c r="J299" s="10">
+        <v>-29.07</v>
+      </c>
+      <c r="K299" s="1">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A300" s="6">
+        <v>289</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F300" s="10">
+        <v>0</v>
+      </c>
+      <c r="G300" s="8">
+        <v>15</v>
+      </c>
+      <c r="H300" s="8">
+        <v>2</v>
+      </c>
+      <c r="J300" s="10">
+        <v>-33.06</v>
+      </c>
+      <c r="K300" s="1">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A301" s="6">
+        <v>290</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F301" s="10">
+        <v>0</v>
+      </c>
+      <c r="G301" s="8">
+        <v>15</v>
+      </c>
+      <c r="H301" s="8">
+        <v>2</v>
+      </c>
+      <c r="J301" s="10">
+        <v>-32.4</v>
+      </c>
+      <c r="K301" s="1">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A302" s="6">
+        <v>291</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F302" s="10">
+        <v>0</v>
+      </c>
+      <c r="G302" s="8">
+        <v>15</v>
+      </c>
+      <c r="H302" s="8">
+        <v>2</v>
+      </c>
+      <c r="J302" s="10">
+        <v>-34.26</v>
+      </c>
+      <c r="K302" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A303" s="6">
+        <v>292</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F303" s="10">
+        <v>13</v>
+      </c>
+      <c r="G303" s="8">
+        <v>15</v>
+      </c>
+      <c r="H303" s="8">
+        <v>2</v>
+      </c>
+      <c r="J303" s="10">
+        <v>2.06</v>
+      </c>
+      <c r="K303" s="1">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A304" s="6">
+        <v>293</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F304" s="10">
+        <v>13</v>
+      </c>
+      <c r="G304" s="8">
+        <v>15</v>
+      </c>
+      <c r="H304" s="8">
+        <v>2</v>
+      </c>
+      <c r="J304" s="10">
+        <v>1.03</v>
+      </c>
+      <c r="K304" s="1">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A305" s="6">
+        <v>294</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F305" s="10">
+        <v>23</v>
+      </c>
+      <c r="G305" s="8">
+        <v>15</v>
+      </c>
+      <c r="H305" s="8">
+        <v>2</v>
+      </c>
+      <c r="J305" s="10">
+        <v>17.2</v>
+      </c>
+      <c r="K305" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A306" s="6">
+        <v>295</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F306" s="10">
+        <v>40</v>
+      </c>
+      <c r="G306" s="8">
+        <v>15</v>
+      </c>
+      <c r="H306" s="8">
+        <v>2</v>
+      </c>
+      <c r="J306" s="10">
+        <v>38.39</v>
+      </c>
+      <c r="K306" s="1">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A307" s="6">
+        <v>296</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F307" s="10">
+        <v>60</v>
+      </c>
+      <c r="G307" s="8">
+        <v>15</v>
+      </c>
+      <c r="H307" s="8">
+        <v>2</v>
+      </c>
+      <c r="J307" s="10">
+        <v>-3.87</v>
+      </c>
+      <c r="K307" s="1">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A308" s="6">
+        <v>297</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F308" s="10">
+        <v>90</v>
+      </c>
+      <c r="G308" s="8">
+        <v>15</v>
+      </c>
+      <c r="H308" s="8">
+        <v>2</v>
+      </c>
+      <c r="J308" s="10">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="K308" s="1">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A309" s="6">
+        <v>298</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309" s="10">
+        <v>0</v>
+      </c>
+      <c r="G309" s="8">
+        <v>6</v>
+      </c>
+      <c r="H309" s="8">
+        <v>2</v>
+      </c>
+      <c r="J309" s="10">
+        <v>-37.18</v>
+      </c>
+      <c r="K309" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A310" s="6">
+        <v>299</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F310" s="10">
+        <v>16</v>
+      </c>
+      <c r="G310" s="8">
+        <v>6</v>
+      </c>
+      <c r="H310" s="8">
+        <v>2</v>
+      </c>
+      <c r="J310" s="10">
+        <v>18.02</v>
+      </c>
+      <c r="K310" s="1">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A311" s="6">
+        <v>300</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F311" s="10">
+        <v>31</v>
+      </c>
+      <c r="G311" s="8">
+        <v>6</v>
+      </c>
+      <c r="H311" s="8">
+        <v>2</v>
+      </c>
+      <c r="J311" s="10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K311" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A312" s="6">
+        <v>301</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F312" s="10">
+        <v>56</v>
+      </c>
+      <c r="G312" s="8">
+        <v>6</v>
+      </c>
+      <c r="H312" s="8">
+        <v>2</v>
+      </c>
+      <c r="J312" s="10">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="K312" s="1">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A313" s="6">
+        <v>302</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F313" s="10">
+        <v>71</v>
+      </c>
+      <c r="G313" s="8">
+        <v>6</v>
+      </c>
+      <c r="H313" s="8">
+        <v>2</v>
+      </c>
+      <c r="J313" s="10">
+        <v>37.5</v>
+      </c>
+      <c r="K313" s="1">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A314" s="6">
+        <v>303</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F314" s="10">
+        <v>90</v>
+      </c>
+      <c r="G314" s="8">
+        <v>6</v>
+      </c>
+      <c r="H314" s="8">
+        <v>2</v>
+      </c>
+      <c r="J314" s="10">
+        <v>56.98</v>
+      </c>
+      <c r="K314" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.5">
       <c r="F315" s="10"/>
       <c r="G315" s="8"/>
     </row>
-    <row r="316" spans="6:7" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.5">
       <c r="F316" s="10"/>
       <c r="G316" s="8"/>
     </row>
-    <row r="317" spans="6:7" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.5">
       <c r="F317" s="10"/>
       <c r="G317" s="8"/>
     </row>
-    <row r="318" spans="6:7" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.5">
       <c r="F318" s="10"/>
       <c r="G318" s="8"/>
     </row>
-    <row r="319" spans="6:7" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.5">
       <c r="F319" s="10"/>
       <c r="G319" s="8"/>
     </row>
-    <row r="320" spans="6:7" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.5">
       <c r="F320" s="10"/>
       <c r="G320" s="8"/>
     </row>
